--- a/branches/master/StructureDefinition-soa-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-15T20:45:59+00:00</t>
+    <t>2022-11-16T15:08:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T15:08:29+00:00</t>
+    <t>2022-11-16T15:32:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T15:32:30+00:00</t>
+    <t>2022-11-16T21:11:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T21:11:06+00:00</t>
+    <t>2022-11-17T18:46:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T18:46:46+00:00</t>
+    <t>2022-11-17T18:50:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T18:50:22+00:00</t>
+    <t>2022-11-17T19:05:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T19:05:57+00:00</t>
+    <t>2022-11-18T18:58:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T18:58:55+00:00</t>
+    <t>2022-11-21T14:25:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T14:25:15+00:00</t>
+    <t>2022-11-21T14:25:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T14:25:54+00:00</t>
+    <t>2022-11-21T15:06:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T15:06:17+00:00</t>
+    <t>2022-11-21T15:57:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T15:57:34+00:00</t>
+    <t>2022-11-21T15:58:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T15:58:19+00:00</t>
+    <t>2022-11-21T15:59:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T15:59:26+00:00</t>
+    <t>2022-11-21T16:10:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T16:10:12+00:00</t>
+    <t>2022-11-21T16:11:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T16:11:07+00:00</t>
+    <t>2022-11-22T17:30:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T17:30:40+00:00</t>
+    <t>2022-11-22T21:05:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -591,7 +591,7 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>Study</t>
+    <t>study</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {https://github.com/alpivonka/FHIR-Base-Clinical-Examples/StructureDefinition/study}

--- a/branches/master/StructureDefinition-soa-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T21:05:37+00:00</t>
+    <t>2022-11-28T16:09:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T16:09:45+00:00</t>
+    <t>2022-11-28T16:23:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T16:23:56+00:00</t>
+    <t>2022-11-28T16:45:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T16:45:04+00:00</t>
+    <t>2022-11-28T18:28:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:28:29+00:00</t>
+    <t>2022-11-28T18:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:44:16+00:00</t>
+    <t>2022-11-28T18:44:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:44:54+00:00</t>
+    <t>2022-11-28T18:46:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:46:24+00:00</t>
+    <t>2022-11-28T18:54:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:54:17+00:00</t>
+    <t>2022-11-28T18:57:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:57:56+00:00</t>
+    <t>2022-11-28T19:21:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T19:21:05+00:00</t>
+    <t>2022-11-28T20:19:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T20:19:31+00:00</t>
+    <t>2022-11-28T21:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T21:47:14+00:00</t>
+    <t>2022-11-28T21:50:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T21:50:18+00:00</t>
+    <t>2022-11-28T22:13:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T22:13:55+00:00</t>
+    <t>2022-11-29T14:31:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T14:31:35+00:00</t>
+    <t>2022-11-29T14:39:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T14:39:13+00:00</t>
+    <t>2022-11-29T18:40:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T18:40:08+00:00</t>
+    <t>2022-11-29T19:09:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T19:09:47+00:00</t>
+    <t>2022-11-29T19:18:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T19:18:22+00:00</t>
+    <t>2022-11-29T19:32:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T19:32:41+00:00</t>
+    <t>2022-11-29T19:42:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T19:42:29+00:00</t>
+    <t>2022-11-29T19:57:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-soa-definition.xlsx
+++ b/branches/master/StructureDefinition-soa-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T19:57:48+00:00</t>
+    <t>2022-11-29T20:07:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
